--- a/ArticleManage/main_working_folder/output_folders/Data 72 The effect of activation/Data72_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 72 The effect of activation/Data72_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="BAC-1000" sheetId="1" r:id="rId1"/>
-    <sheet name="BAC-1100" sheetId="2" r:id="rId4"/>
-    <sheet name="BAC-600" sheetId="3" r:id="rId5"/>
-    <sheet name="BAC-700" sheetId="4" r:id="rId6"/>
-    <sheet name="BAC-800" sheetId="5" r:id="rId7"/>
-    <sheet name="BAC-900" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 3 BAC-1000  0-1-0-250 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 BAC-1100  0-1-0-250 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 BAC-600  0-1-0-250 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 BAC-700  0-1-0-250 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 BAC-800  0-1-0-250 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3 BAC-900  0-1-0-250 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -117,7 +117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BAC-1000</a:t>
+              <a:t>Izoterma adsorpcji probki BAC-1000 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BAC-1000'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 BAC-1000  0-1-0-250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BAC-1000'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 BAC-1000  0-1-0-250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -194,6 +194,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -263,6 +265,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -427,7 +431,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BAC-1100</a:t>
+              <a:t>Izoterma adsorpcji probki BAC-1100 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -486,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BAC-1100'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 BAC-1100  0-1-0-250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BAC-1100'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 BAC-1100  0-1-0-250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -504,6 +508,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -573,6 +579,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -737,7 +745,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BAC-600</a:t>
+              <a:t>Izoterma adsorpcji probki BAC-600 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -796,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BAC-600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 BAC-600  0-1-0-250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BAC-600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 BAC-600  0-1-0-250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -814,6 +822,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -883,6 +893,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1047,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BAC-700</a:t>
+              <a:t>Izoterma adsorpcji probki BAC-700 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1106,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BAC-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 BAC-700  0-1-0-250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BAC-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 BAC-700  0-1-0-250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1124,6 +1136,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1193,6 +1207,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1357,7 +1373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BAC-800</a:t>
+              <a:t>Izoterma adsorpcji probki BAC-800 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1416,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BAC-800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 BAC-800  0-1-0-250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BAC-800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 BAC-800  0-1-0-250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1434,6 +1450,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1503,6 +1521,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1667,7 +1687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BAC-900</a:t>
+              <a:t>Izoterma adsorpcji probki BAC-900 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1726,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BAC-900'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 BAC-900  0-1-0-250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BAC-900'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 BAC-900  0-1-0-250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1744,6 +1764,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1813,6 +1835,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 72 The effect of activation/Data72_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 72 The effect of activation/Data72_all_graphs_excel.xlsx
@@ -5841,7 +5841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5918,453 +5918,309 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.0618</v>
       </c>
       <c r="B10" s="0">
-        <v>182.199</v>
+        <v>167.731</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.0311</v>
       </c>
       <c r="B11" s="0">
-        <v>183.2682</v>
+        <v>158.3453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.0136</v>
       </c>
       <c r="B12" s="0">
-        <v>184.257</v>
+        <v>146.9418</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.006</v>
       </c>
       <c r="B13" s="0">
-        <v>185.2427</v>
+        <v>139.5618</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.0016</v>
       </c>
       <c r="B14" s="0">
-        <v>186.2968</v>
+        <v>130.5029</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.0006</v>
       </c>
       <c r="B15" s="0">
-        <v>187.3809</v>
+        <v>120.1006</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>-0.0005</v>
       </c>
       <c r="B16" s="0">
-        <v>188.4374</v>
+        <v>111.0405</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.0007</v>
       </c>
       <c r="B17" s="0">
-        <v>189.4598</v>
+        <v>100.6374</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.0007</v>
       </c>
       <c r="B18" s="0">
-        <v>190.4485</v>
+        <v>91.577</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>-0.0004</v>
       </c>
       <c r="B19" s="0">
-        <v>191.4075</v>
+        <v>80.5035</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.0008</v>
       </c>
       <c r="B20" s="0">
-        <v>192.3604</v>
+        <v>70.1005</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>-0.0014</v>
       </c>
       <c r="B21" s="0">
-        <v>193.3121</v>
+        <v>61.0408</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>-0.0002</v>
       </c>
       <c r="B22" s="0">
-        <v>194.2669</v>
+        <v>50.6377</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>-0.0002</v>
       </c>
       <c r="B23" s="0">
-        <v>195.2899</v>
+        <v>40.235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>-0.0001</v>
       </c>
       <c r="B24" s="0">
-        <v>196.4171</v>
+        <v>29.8323</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>-0.0023</v>
       </c>
       <c r="B25" s="0">
-        <v>197.5697</v>
+        <v>19.7659</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.0022</v>
       </c>
       <c r="B26" s="0">
-        <v>198.6905</v>
+        <v>9.6973</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.2492</v>
       </c>
       <c r="B27" s="0">
-        <v>199.7538</v>
+        <v>183.7755</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.3018</v>
       </c>
       <c r="B28" s="0">
-        <v>200.7509</v>
+        <v>186.4424</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6</v>
+        <v>0.3533</v>
       </c>
       <c r="B29" s="0">
-        <v>201.7295</v>
+        <v>189.4453</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.62</v>
+        <v>0.4005</v>
       </c>
       <c r="B30" s="0">
-        <v>202.7272</v>
+        <v>191.4429</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.64</v>
+        <v>0.452</v>
       </c>
       <c r="B31" s="0">
-        <v>203.7379</v>
+        <v>194.1101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.66</v>
+        <v>0.5013</v>
       </c>
       <c r="B32" s="0">
-        <v>204.7729</v>
+        <v>196.7782</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68</v>
+        <v>0.5518</v>
       </c>
       <c r="B33" s="0">
-        <v>205.9009</v>
+        <v>199.7814</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7</v>
+        <v>0.6011</v>
       </c>
       <c r="B34" s="0">
-        <v>207.1536</v>
+        <v>202.1138</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.72</v>
+        <v>0.6515</v>
       </c>
       <c r="B35" s="0">
-        <v>208.4465</v>
+        <v>205.117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.74</v>
+        <v>0.7019</v>
       </c>
       <c r="B36" s="0">
-        <v>209.7294</v>
+        <v>207.7847</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.76</v>
+        <v>0.7524</v>
       </c>
       <c r="B37" s="0">
-        <v>211.0328</v>
+        <v>210.7879</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.78</v>
+        <v>0.8006</v>
       </c>
       <c r="B38" s="0">
-        <v>212.3507</v>
+        <v>213.4562</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8</v>
+        <v>0.8203</v>
       </c>
       <c r="B39" s="0">
-        <v>213.6485</v>
+        <v>214.4563</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.82</v>
+        <v>0.8521</v>
       </c>
       <c r="B40" s="0">
-        <v>214.9089</v>
+        <v>216.7947</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.84</v>
+        <v>0.8773</v>
       </c>
       <c r="B41" s="0">
-        <v>216.1653</v>
+        <v>218.1285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.86</v>
+        <v>0.9004</v>
       </c>
       <c r="B42" s="0">
-        <v>217.4646</v>
+        <v>219.7986</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.88</v>
+        <v>0.9245</v>
       </c>
       <c r="B43" s="0">
-        <v>218.7884</v>
+        <v>222.4751</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.9</v>
+        <v>0.9508</v>
       </c>
       <c r="B44" s="0">
-        <v>220.1845</v>
+        <v>224.4797</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.92</v>
+        <v>0.9738</v>
       </c>
       <c r="B45" s="0">
-        <v>221.9411</v>
+        <v>227.8277</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.94</v>
+        <v>0.988</v>
       </c>
       <c r="B46" s="0">
-        <v>224.2775</v>
+        <v>231.1786</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.96</v>
+        <v>0.9924</v>
       </c>
       <c r="B47" s="0">
-        <v>227.4235</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B48" s="0">
-        <v>230.5693</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0618</v>
-      </c>
-      <c r="B49" s="0">
-        <v>167.731</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0311</v>
-      </c>
-      <c r="B50" s="0">
-        <v>158.3453</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0136</v>
-      </c>
-      <c r="B51" s="0">
-        <v>146.9418</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.006</v>
-      </c>
-      <c r="B52" s="0">
-        <v>139.5618</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0016</v>
-      </c>
-      <c r="B53" s="0">
-        <v>130.5029</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0006</v>
-      </c>
-      <c r="B54" s="0">
-        <v>120.1006</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>-0.0005</v>
-      </c>
-      <c r="B55" s="0">
-        <v>111.0405</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0007</v>
-      </c>
-      <c r="B56" s="0">
-        <v>100.6374</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0007</v>
-      </c>
-      <c r="B57" s="0">
-        <v>91.577</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>-0.0004</v>
-      </c>
-      <c r="B58" s="0">
-        <v>80.5035</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.0008</v>
-      </c>
-      <c r="B59" s="0">
-        <v>70.1005</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>-0.0014</v>
-      </c>
-      <c r="B60" s="0">
-        <v>61.0408</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>-0.0002</v>
-      </c>
-      <c r="B61" s="0">
-        <v>50.6377</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>-0.0002</v>
-      </c>
-      <c r="B62" s="0">
-        <v>40.235</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>-0.0001</v>
-      </c>
-      <c r="B63" s="0">
-        <v>29.8323</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>-0.0023</v>
-      </c>
-      <c r="B64" s="0">
-        <v>19.7659</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.0022</v>
-      </c>
-      <c r="B65" s="0">
-        <v>9.6973</v>
-      </c>
-    </row>
-    <row r="66"/>
+        <v>234.5328</v>
+      </c>
+    </row>
+    <row r="48"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6373,7 +6229,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6394,477 +6250,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.0324</v>
       </c>
       <c r="B3" s="0">
-        <v>127.6762</v>
+        <v>122.4389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.0115</v>
       </c>
       <c r="B4" s="0">
-        <v>130.1883</v>
+        <v>117.0767</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.005</v>
       </c>
       <c r="B5" s="0">
-        <v>130.0045</v>
+        <v>110.032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.0018</v>
       </c>
       <c r="B6" s="0">
-        <v>130.856</v>
+        <v>99.6304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.0007</v>
       </c>
       <c r="B7" s="0">
-        <v>132.0766</v>
+        <v>88.2213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>-0.0014</v>
       </c>
       <c r="B8" s="0">
-        <v>132.8929</v>
+        <v>78.4905</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.0008</v>
       </c>
       <c r="B9" s="0">
-        <v>133.5419</v>
+        <v>66.4092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>-0.0013</v>
       </c>
       <c r="B10" s="0">
-        <v>134.2096</v>
+        <v>55.6717</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>-0.0013</v>
       </c>
       <c r="B11" s="0">
-        <v>134.8153</v>
+        <v>45.269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>-0.0012</v>
       </c>
       <c r="B12" s="0">
-        <v>135.2966</v>
+        <v>34.1951</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>-0.0001</v>
       </c>
       <c r="B13" s="0">
-        <v>135.7319</v>
+        <v>23.1209</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>-0.0001</v>
       </c>
       <c r="B14" s="0">
-        <v>136.2122</v>
+        <v>11.3759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.0707</v>
       </c>
       <c r="B15" s="0">
-        <v>136.7132</v>
+        <v>126.1173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.0981</v>
       </c>
       <c r="B16" s="0">
-        <v>137.2098</v>
+        <v>129.1282</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.1211</v>
       </c>
       <c r="B17" s="0">
-        <v>137.7337</v>
+        <v>130.4628</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.1376</v>
       </c>
       <c r="B18" s="0">
-        <v>138.2577</v>
+        <v>131.7995</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.1606</v>
       </c>
       <c r="B19" s="0">
-        <v>138.6858</v>
+        <v>132.1274</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.1792</v>
       </c>
       <c r="B20" s="0">
-        <v>138.9507</v>
+        <v>132.7923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.2012</v>
       </c>
       <c r="B21" s="0">
-        <v>139.0863</v>
+        <v>133.7916</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.2483</v>
       </c>
       <c r="B22" s="0">
-        <v>139.2686</v>
+        <v>135.1181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.2998</v>
       </c>
       <c r="B23" s="0">
-        <v>139.5807</v>
+        <v>136.4431</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.3492</v>
       </c>
       <c r="B24" s="0">
-        <v>140.0402</v>
+        <v>137.4332</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.4007</v>
       </c>
       <c r="B25" s="0">
-        <v>140.6574</v>
+        <v>138.4227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.4533</v>
       </c>
       <c r="B26" s="0">
-        <v>141.4722</v>
+        <v>140.0828</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.5016</v>
       </c>
       <c r="B27" s="0">
-        <v>142.3966</v>
+        <v>141.0734</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.552</v>
       </c>
       <c r="B28" s="0">
-        <v>143.2723</v>
+        <v>141.7276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6</v>
+        <v>0.6003</v>
       </c>
       <c r="B29" s="0">
-        <v>143.942</v>
+        <v>142.3825</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.62</v>
+        <v>0.6507</v>
       </c>
       <c r="B30" s="0">
-        <v>144.2645</v>
+        <v>143.7079</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.64</v>
+        <v>0.7022</v>
       </c>
       <c r="B31" s="0">
-        <v>144.3602</v>
+        <v>145.0329</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.66</v>
+        <v>0.7527</v>
       </c>
       <c r="B32" s="0">
-        <v>144.465</v>
+        <v>145.6871</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68</v>
+        <v>0.7987</v>
       </c>
       <c r="B33" s="0">
-        <v>144.5429</v>
+        <v>146.0072</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7</v>
+        <v>0.8195</v>
       </c>
       <c r="B34" s="0">
-        <v>144.6081</v>
+        <v>146.3358</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.72</v>
+        <v>0.8502</v>
       </c>
       <c r="B35" s="0">
-        <v>144.8234</v>
+        <v>146.9966</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.74</v>
+        <v>0.8733</v>
       </c>
       <c r="B36" s="0">
-        <v>145.3033</v>
+        <v>147.3245</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.76</v>
+        <v>0.9029</v>
       </c>
       <c r="B37" s="0">
-        <v>145.8892</v>
+        <v>147.6501</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.78</v>
+        <v>0.9259</v>
       </c>
       <c r="B38" s="0">
-        <v>146.4135</v>
+        <v>147.6424</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8</v>
+        <v>0.9511</v>
       </c>
       <c r="B39" s="0">
-        <v>146.8263</v>
+        <v>148.9762</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.82</v>
+        <v>0.9752</v>
       </c>
       <c r="B40" s="0">
-        <v>147.1052</v>
+        <v>150.646</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.84</v>
+        <v>0.9928</v>
       </c>
       <c r="B41" s="0">
-        <v>147.3287</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>147.5671</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>147.7524</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>147.9017</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>148.2705</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>149.0334</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B47" s="0">
-        <v>150.188</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0324</v>
-      </c>
-      <c r="B48" s="0">
-        <v>122.4389</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0115</v>
-      </c>
-      <c r="B49" s="0">
-        <v>117.0767</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.005</v>
-      </c>
-      <c r="B50" s="0">
-        <v>110.032</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0018</v>
-      </c>
-      <c r="B51" s="0">
-        <v>99.6304</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0007</v>
-      </c>
-      <c r="B52" s="0">
-        <v>88.2213</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>-0.0014</v>
-      </c>
-      <c r="B53" s="0">
-        <v>78.4905</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0008</v>
-      </c>
-      <c r="B54" s="0">
-        <v>66.4092</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>-0.0013</v>
-      </c>
-      <c r="B55" s="0">
-        <v>55.6717</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>-0.0013</v>
-      </c>
-      <c r="B56" s="0">
-        <v>45.269</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>-0.0012</v>
-      </c>
-      <c r="B57" s="0">
-        <v>34.1951</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>-0.0001</v>
-      </c>
-      <c r="B58" s="0">
-        <v>23.1209</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>-0.0001</v>
-      </c>
-      <c r="B59" s="0">
-        <v>11.3759</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.9785</v>
-      </c>
-      <c r="B60" s="0">
-        <v>150.6449</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.9938</v>
-      </c>
-      <c r="B61" s="0">
-        <v>152.9887</v>
-      </c>
-    </row>
-    <row r="62"/>
+        <v>152.6535</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6873,7 +6569,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6894,405 +6590,245 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.06</v>
+        <v>0.9933</v>
       </c>
       <c r="B3" s="0">
-        <v>23.8345</v>
+        <v>37.5527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.08</v>
+        <v>0.9735</v>
       </c>
       <c r="B4" s="0">
-        <v>25.4236</v>
+        <v>35.5459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1</v>
+        <v>0.9494</v>
       </c>
       <c r="B5" s="0">
-        <v>26.1931</v>
+        <v>34.2117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12</v>
+        <v>0.9264</v>
       </c>
       <c r="B6" s="0">
-        <v>26.2653</v>
+        <v>33.5483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.14</v>
+        <v>0.899</v>
       </c>
       <c r="B7" s="0">
-        <v>26.35</v>
+        <v>32.8863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16</v>
+        <v>0.876</v>
       </c>
       <c r="B8" s="0">
-        <v>26.4989</v>
+        <v>32.894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.18</v>
+        <v>0.8518</v>
       </c>
       <c r="B9" s="0">
-        <v>26.6431</v>
+        <v>32.5666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2</v>
+        <v>0.82</v>
       </c>
       <c r="B10" s="0">
-        <v>26.6924</v>
+        <v>31.9061</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.22</v>
+        <v>0.8003</v>
       </c>
       <c r="B11" s="0">
-        <v>26.7026</v>
+        <v>31.9127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.24</v>
+        <v>0.7499</v>
       </c>
       <c r="B12" s="0">
-        <v>26.7402</v>
+        <v>31.2585</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.26</v>
+        <v>0.7005</v>
       </c>
       <c r="B13" s="0">
-        <v>26.8502</v>
+        <v>30.6039</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.6512</v>
       </c>
       <c r="B14" s="0">
-        <v>27.0287</v>
+        <v>30.2849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.5997</v>
       </c>
       <c r="B15" s="0">
-        <v>27.227</v>
+        <v>29.6311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.32</v>
+        <v>0.5503</v>
       </c>
       <c r="B16" s="0">
-        <v>27.4281</v>
+        <v>29.3121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.34</v>
+        <v>0.4999</v>
       </c>
       <c r="B17" s="0">
-        <v>27.6112</v>
+        <v>28.9934</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.36</v>
+        <v>0.4527</v>
       </c>
       <c r="B18" s="0">
-        <v>27.7391</v>
+        <v>28.6737</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.38</v>
+        <v>0.399</v>
       </c>
       <c r="B19" s="0">
-        <v>27.8165</v>
+        <v>28.0205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4</v>
+        <v>0.3529</v>
       </c>
       <c r="B20" s="0">
-        <v>27.8529</v>
+        <v>27.7004</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.3003</v>
       </c>
       <c r="B21" s="0">
-        <v>27.886</v>
+        <v>27.3825</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.251</v>
       </c>
       <c r="B22" s="0">
-        <v>27.9364</v>
+        <v>27.0635</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.2016</v>
       </c>
       <c r="B23" s="0">
-        <v>28.0427</v>
+        <v>26.4089</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.1819</v>
       </c>
       <c r="B24" s="0">
-        <v>28.2934</v>
+        <v>26.4155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5</v>
+        <v>0.1622</v>
       </c>
       <c r="B25" s="0">
-        <v>28.6073</v>
+        <v>26.0866</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.52</v>
+        <v>0.1424</v>
       </c>
       <c r="B26" s="0">
-        <v>28.9515</v>
+        <v>25.7576</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.54</v>
+        <v>0.1205</v>
       </c>
       <c r="B27" s="0">
-        <v>29.3259</v>
+        <v>25.4294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.56</v>
+        <v>0.0997</v>
       </c>
       <c r="B28" s="0">
-        <v>29.6198</v>
+        <v>25.772</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.58</v>
+        <v>0.0799</v>
       </c>
       <c r="B29" s="0">
-        <v>29.8136</v>
+        <v>25.1075</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6</v>
+        <v>0.0624</v>
       </c>
       <c r="B30" s="0">
-        <v>29.9422</v>
+        <v>24.7778</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.62</v>
+        <v>0.0273</v>
       </c>
       <c r="B31" s="0">
-        <v>29.9629</v>
+        <v>23.7829</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.012</v>
       </c>
       <c r="B32" s="0">
-        <v>30.043</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B33" s="0">
-        <v>30.3271</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B34" s="0">
-        <v>30.6603</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B35" s="0">
-        <v>30.8931</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B36" s="0">
-        <v>31.0661</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B37" s="0">
-        <v>31.2437</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B38" s="0">
-        <v>31.5171</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B39" s="0">
-        <v>31.9336</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B40" s="0">
-        <v>32.3713</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B41" s="0">
-        <v>32.669</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>32.8246</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>33.1248</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>33.4943</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>33.8095</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>34.1973</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B47" s="0">
-        <v>34.7842</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B48" s="0">
-        <v>35.5361</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B49" s="0">
-        <v>36.6602</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9922</v>
-      </c>
-      <c r="B50" s="0">
-        <v>37.553</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0262</v>
-      </c>
-      <c r="B51" s="0">
-        <v>23.4477</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0131</v>
-      </c>
-      <c r="B52" s="0">
-        <v>16.7406</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>17.4122</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7301,7 +6837,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7322,405 +6858,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.06</v>
+        <v>0.9943</v>
       </c>
       <c r="B3" s="0">
-        <v>28.7993</v>
+        <v>48.9617</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.08</v>
+        <v>0.9768</v>
       </c>
       <c r="B4" s="0">
-        <v>32.4207</v>
+        <v>46.6186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1</v>
+        <v>0.9505</v>
       </c>
       <c r="B5" s="0">
-        <v>35.0702</v>
+        <v>45.6207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12</v>
+        <v>0.9252</v>
       </c>
       <c r="B6" s="0">
-        <v>34.9149</v>
+        <v>44.958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.14</v>
+        <v>0.9011</v>
       </c>
       <c r="B7" s="0">
-        <v>34.9383</v>
+        <v>44.295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16</v>
+        <v>0.8759</v>
       </c>
       <c r="B8" s="0">
-        <v>35.421</v>
+        <v>43.9679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.18</v>
+        <v>0.8496</v>
       </c>
       <c r="B9" s="0">
-        <v>35.7236</v>
+        <v>42.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2</v>
+        <v>0.82</v>
       </c>
       <c r="B10" s="0">
-        <v>35.8721</v>
+        <v>42.6444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.22</v>
+        <v>0.8024</v>
       </c>
       <c r="B11" s="0">
-        <v>36.0579</v>
+        <v>42.6503</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.24</v>
+        <v>0.752</v>
       </c>
       <c r="B12" s="0">
-        <v>36.2361</v>
+        <v>41.996</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.26</v>
+        <v>0.7027</v>
       </c>
       <c r="B13" s="0">
-        <v>36.3451</v>
+        <v>41.0059</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.65</v>
       </c>
       <c r="B14" s="0">
-        <v>36.4668</v>
+        <v>40.688</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.6029</v>
       </c>
       <c r="B15" s="0">
-        <v>36.6821</v>
+        <v>39.6971</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.32</v>
+        <v>0.5503</v>
       </c>
       <c r="B16" s="0">
-        <v>36.9453</v>
+        <v>39.3792</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.34</v>
+        <v>0.5009</v>
       </c>
       <c r="B17" s="0">
-        <v>37.1897</v>
+        <v>38.7246</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.36</v>
+        <v>0.4494</v>
       </c>
       <c r="B18" s="0">
-        <v>37.35</v>
+        <v>37.7352</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.38</v>
+        <v>0.4022</v>
       </c>
       <c r="B19" s="0">
-        <v>37.3989</v>
+        <v>37.4154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4</v>
+        <v>0.3518</v>
       </c>
       <c r="B20" s="0">
-        <v>37.3912</v>
+        <v>37.0968</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.3014</v>
       </c>
       <c r="B21" s="0">
-        <v>37.4455</v>
+        <v>36.7781</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.2498</v>
       </c>
       <c r="B22" s="0">
-        <v>37.6593</v>
+        <v>36.4599</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.2016</v>
       </c>
       <c r="B23" s="0">
-        <v>37.942</v>
+        <v>36.1405</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.1808</v>
       </c>
       <c r="B24" s="0">
-        <v>38.2798</v>
+        <v>35.8119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5</v>
+        <v>0.161</v>
       </c>
       <c r="B25" s="0">
-        <v>38.6651</v>
+        <v>35.1474</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.52</v>
+        <v>0.1402</v>
       </c>
       <c r="B26" s="0">
-        <v>39.0874</v>
+        <v>35.1544</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.54</v>
+        <v>0.1194</v>
       </c>
       <c r="B27" s="0">
-        <v>39.647</v>
+        <v>34.4902</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.56</v>
+        <v>0.1029</v>
       </c>
       <c r="B28" s="0">
-        <v>40.2511</v>
+        <v>34.1602</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.58</v>
+        <v>0.0777</v>
       </c>
       <c r="B29" s="0">
-        <v>40.7815</v>
+        <v>33.8331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6</v>
+        <v>0.0317</v>
       </c>
       <c r="B30" s="0">
-        <v>40.7589</v>
+        <v>23.4458</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.62</v>
+        <v>0.0087</v>
       </c>
       <c r="B31" s="0">
-        <v>40.4399</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B32" s="0">
-        <v>40.1941</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B33" s="0">
-        <v>40.3584</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B34" s="0">
-        <v>40.8916</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B35" s="0">
-        <v>41.4141</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B36" s="0">
-        <v>41.8546</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B37" s="0">
-        <v>42.1429</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B38" s="0">
-        <v>42.3284</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B39" s="0">
-        <v>42.5613</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B40" s="0">
-        <v>42.836</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B41" s="0">
-        <v>43.1249</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>43.4677</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>43.9183</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>44.4337</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>44.9235</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>45.4344</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B47" s="0">
-        <v>46.0542</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B48" s="0">
-        <v>46.7843</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B49" s="0">
-        <v>47.9084</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9954</v>
-      </c>
-      <c r="B50" s="0">
-        <v>48.6258</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0306</v>
-      </c>
-      <c r="B51" s="0">
-        <v>22.4395</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0098</v>
-      </c>
-      <c r="B52" s="0">
-        <v>18.4196</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>18.7555</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7729,7 +7097,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7750,413 +7118,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.0338</v>
       </c>
       <c r="B3" s="0">
-        <v>41.1571</v>
+        <v>37.8746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.0229</v>
       </c>
       <c r="B4" s="0">
-        <v>42.4534</v>
+        <v>33.1803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.0065</v>
       </c>
       <c r="B5" s="0">
-        <v>42.7866</v>
+        <v>28.4878</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.0667</v>
       </c>
       <c r="B6" s="0">
-        <v>43.1421</v>
+        <v>40.8837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.0788</v>
       </c>
       <c r="B7" s="0">
-        <v>43.5141</v>
+        <v>41.5508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.0996</v>
       </c>
       <c r="B8" s="0">
-        <v>43.7776</v>
+        <v>41.5438</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.1204</v>
       </c>
       <c r="B9" s="0">
-        <v>43.8736</v>
+        <v>42.208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.1402</v>
       </c>
       <c r="B10" s="0">
-        <v>43.8193</v>
+        <v>42.5369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.1599</v>
       </c>
       <c r="B11" s="0">
-        <v>43.678</v>
+        <v>43.537</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.1807</v>
       </c>
       <c r="B12" s="0">
-        <v>43.5212</v>
+        <v>43.8656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.1994</v>
       </c>
       <c r="B13" s="0">
-        <v>43.4979</v>
+        <v>44.1949</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.2498</v>
       </c>
       <c r="B14" s="0">
-        <v>43.6723</v>
+        <v>44.178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.3013</v>
       </c>
       <c r="B15" s="0">
-        <v>43.9592</v>
+        <v>45.1674</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.3529</v>
       </c>
       <c r="B16" s="0">
-        <v>44.2578</v>
+        <v>45.4857</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.4022</v>
       </c>
       <c r="B17" s="0">
-        <v>44.5423</v>
+        <v>46.1403</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.4505</v>
       </c>
       <c r="B18" s="0">
-        <v>44.8297</v>
+        <v>46.4597</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.502</v>
       </c>
       <c r="B19" s="0">
-        <v>45.0625</v>
+        <v>47.4491</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.5502</v>
       </c>
       <c r="B20" s="0">
-        <v>45.2474</v>
+        <v>48.104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.6007</v>
       </c>
       <c r="B21" s="0">
-        <v>45.3829</v>
+        <v>48.4227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.6522</v>
       </c>
       <c r="B22" s="0">
-        <v>45.4869</v>
+        <v>48.7409</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.7015</v>
       </c>
       <c r="B23" s="0">
-        <v>45.6909</v>
+        <v>49.7311</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.752</v>
       </c>
       <c r="B24" s="0">
-        <v>46.0192</v>
+        <v>50.3853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.8024</v>
       </c>
       <c r="B25" s="0">
-        <v>46.3737</v>
+        <v>50.704</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.82</v>
       </c>
       <c r="B26" s="0">
-        <v>46.6831</v>
+        <v>50.6981</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.8517</v>
       </c>
       <c r="B27" s="0">
-        <v>46.9222</v>
+        <v>51.3585</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.8737</v>
       </c>
       <c r="B28" s="0">
-        <v>47.1269</v>
+        <v>51.6868</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6</v>
+        <v>0.8978</v>
       </c>
       <c r="B29" s="0">
-        <v>47.3453</v>
+        <v>52.3498</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.62</v>
+        <v>0.9252</v>
       </c>
       <c r="B30" s="0">
-        <v>47.5916</v>
+        <v>53.0117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.64</v>
+        <v>0.9504</v>
       </c>
       <c r="B31" s="0">
-        <v>47.7776</v>
+        <v>54.01</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.66</v>
+        <v>0.9745</v>
       </c>
       <c r="B32" s="0">
-        <v>47.8922</v>
+        <v>55.0086</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68</v>
+        <v>0.9932</v>
       </c>
       <c r="B33" s="0">
-        <v>48.0718</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B34" s="0">
-        <v>48.3755</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B35" s="0">
-        <v>48.6925</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B36" s="0">
-        <v>48.9376</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B37" s="0">
-        <v>49.0637</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B38" s="0">
-        <v>49.1484</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B39" s="0">
-        <v>49.2542</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B40" s="0">
-        <v>49.5122</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>49.9468</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>50.4837</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>51.1303</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>51.85</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>52.6703</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>53.6105</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B47" s="0">
-        <v>54.7472</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B48" s="0">
-        <v>55.7744</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0656</v>
-      </c>
-      <c r="B49" s="0">
-        <v>40.8841</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0338</v>
-      </c>
-      <c r="B50" s="0">
-        <v>37.8746</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0229</v>
-      </c>
-      <c r="B51" s="0">
-        <v>33.1803</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0065</v>
-      </c>
-      <c r="B52" s="0">
-        <v>28.4878</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9921</v>
-      </c>
-      <c r="B53" s="0">
-        <v>57.3517</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>57.3514</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8165,7 +7373,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8186,429 +7394,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0009</v>
       </c>
       <c r="B3" s="0">
-        <v>61.1332</v>
+        <v>50.9729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>-0.0013</v>
       </c>
       <c r="B4" s="0">
-        <v>63.9257</v>
+        <v>41.5777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0162</v>
       </c>
       <c r="B5" s="0">
-        <v>65.9344</v>
+        <v>60.3638</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0359</v>
       </c>
       <c r="B6" s="0">
-        <v>67.519</v>
+        <v>64.384</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="B7" s="0">
-        <v>68.292</v>
+        <v>66.0538</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.0797</v>
       </c>
       <c r="B8" s="0">
-        <v>68.7651</v>
+        <v>67.0538</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.0995</v>
       </c>
       <c r="B9" s="0">
-        <v>69.3278</v>
+        <v>67.7184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1214</v>
       </c>
       <c r="B10" s="0">
-        <v>69.874</v>
+        <v>68.0466</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1401</v>
       </c>
       <c r="B11" s="0">
-        <v>70.3347</v>
+        <v>68.3759</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.1598</v>
       </c>
       <c r="B12" s="0">
-        <v>70.7312</v>
+        <v>69.0404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.1795</v>
       </c>
       <c r="B13" s="0">
-        <v>71.0937</v>
+        <v>69.7049</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.1993</v>
       </c>
       <c r="B14" s="0">
-        <v>71.4345</v>
+        <v>70.3695</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.2497</v>
       </c>
       <c r="B15" s="0">
-        <v>71.7527</v>
+        <v>71.6948</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3012</v>
       </c>
       <c r="B16" s="0">
-        <v>72.0081</v>
+        <v>72.3487</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.3517</v>
       </c>
       <c r="B17" s="0">
-        <v>72.2795</v>
+        <v>72.6673</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.3999</v>
       </c>
       <c r="B18" s="0">
-        <v>72.7355</v>
+        <v>73.3223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.4503</v>
       </c>
       <c r="B19" s="0">
-        <v>73.4757</v>
+        <v>74.312</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5019</v>
       </c>
       <c r="B20" s="0">
-        <v>74.101</v>
+        <v>74.9659</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.5512</v>
       </c>
       <c r="B21" s="0">
-        <v>74.4058</v>
+        <v>75.2849</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.6005</v>
       </c>
       <c r="B22" s="0">
-        <v>74.4815</v>
+        <v>75.9395</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.651</v>
       </c>
       <c r="B23" s="0">
-        <v>74.3348</v>
+        <v>76.9293</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.7014</v>
       </c>
       <c r="B24" s="0">
-        <v>74.4055</v>
+        <v>77.2479</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.7508</v>
       </c>
       <c r="B25" s="0">
-        <v>74.8231</v>
+        <v>77.9025</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.8012</v>
       </c>
       <c r="B26" s="0">
-        <v>75.2157</v>
+        <v>78.5567</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8198</v>
       </c>
       <c r="B27" s="0">
-        <v>75.3977</v>
+        <v>78.5505</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.8505</v>
       </c>
       <c r="B28" s="0">
-        <v>75.5002</v>
+        <v>78.8757</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.8747</v>
       </c>
       <c r="B29" s="0">
-        <v>75.6517</v>
+        <v>78.8676</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.9021</v>
       </c>
       <c r="B30" s="0">
-        <v>75.8288</v>
+        <v>79.5296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.9262</v>
       </c>
       <c r="B31" s="0">
-        <v>76.041</v>
+        <v>79.8571</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.9514</v>
       </c>
       <c r="B32" s="0">
-        <v>76.2666</v>
+        <v>80.5197</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.9733</v>
       </c>
       <c r="B33" s="0">
-        <v>76.4989</v>
+        <v>81.5191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.9941</v>
       </c>
       <c r="B34" s="0">
-        <v>76.7539</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>77.0695</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>77.33</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>77.558</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>77.9034</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>78.4257</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>78.8436</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>78.9883</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>78.9327</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>78.824</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>78.9301</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>79.364</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>79.8143</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>80.0629</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>80.282</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>80.6723</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>81.4226</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>82.4898</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9942</v>
-      </c>
-      <c r="B52" s="0">
-        <v>83.19</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B53" s="0">
-        <v>50.9729</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>-0.0013</v>
-      </c>
-      <c r="B54" s="0">
-        <v>41.5777</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0107</v>
-      </c>
-      <c r="B55" s="0">
-        <v>57.681</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>84.1967</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 72 The effect of activation/Data72_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 72 The effect of activation/Data72_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 BAC-1000  0-1-0-250 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3 BAC-1100  0-1-0-250 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 3 BAC-600  0-1-0-250 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 3 BAC-700  0-1-0-250 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 3 BAC-800  0-1-0-250 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 3 BAC-900  0-1-0-250 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 3 BAC-1000  0&amp;1&amp;0&amp;250 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 BAC-1100  0&amp;1&amp;0&amp;250 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 BAC-600  0&amp;1&amp;0&amp;250 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 BAC-700  0&amp;1&amp;0&amp;250 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 BAC-800  0&amp;1&amp;0&amp;250 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3 BAC-900  0&amp;1&amp;0&amp;250 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 BAC-1000  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 BAC-1000  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 BAC-1000  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 BAC-1000  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -490,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 BAC-1100  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 BAC-1100  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 BAC-1100  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 BAC-1100  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -804,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 BAC-600  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 BAC-600  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 BAC-600  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 BAC-600  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1118,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 BAC-700  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 BAC-700  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 BAC-700  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 BAC-700  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1432,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 BAC-800  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 BAC-800  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 BAC-800  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 BAC-800  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1746,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 BAC-900  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 BAC-900  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 BAC-900  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 BAC-900  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
